--- a/import.xlsx
+++ b/import.xlsx
@@ -1,44 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Locaties" sheetId="1" r:id="rId1"/>
-    <sheet name="Opdrachten" sheetId="2" r:id="rId2"/>
-    <sheet name="Studenten" sheetId="3" r:id="rId3"/>
+    <sheet name="Student" sheetId="5" r:id="rId1"/>
+    <sheet name="Institute" sheetId="1" r:id="rId2"/>
+    <sheet name="Project" sheetId="2" r:id="rId3"/>
+    <sheet name="Review" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Locatie_naam</t>
   </si>
   <si>
-    <t>Locatie_omschijving</t>
-  </si>
-  <si>
     <t>Locatie_lat</t>
   </si>
   <si>
     <t>Locatie_lon</t>
   </si>
   <si>
-    <t>Opdracht_titel</t>
-  </si>
-  <si>
-    <t>Opdracht_omchrijving</t>
-  </si>
-  <si>
-    <t>Interactieve kaart</t>
-  </si>
-  <si>
     <t>Bart</t>
   </si>
   <si>
@@ -75,34 +64,12 @@
     <t>O0003</t>
   </si>
   <si>
-    <t>Datum_van</t>
-  </si>
-  <si>
-    <t>Datum_tot</t>
-  </si>
-  <si>
     <t>Avans Hogeschool 's-Hertogenbosch</t>
   </si>
   <si>
     <t>Locatie_type</t>
   </si>
   <si>
-    <t>Hogeschool</t>
-  </si>
-  <si>
-    <t>Locatie_adres</t>
-  </si>
-  <si>
-    <t>Onderwijsboulevard 256
-5223 DJ 's-Hertogenbosch</t>
-  </si>
-  <si>
-    <t>Avans Hogeschool 's-Hertogenbosch is een…</t>
-  </si>
-  <si>
-    <t>De Interactieve kaart is een…</t>
-  </si>
-  <si>
     <t>Beoordeling_score</t>
   </si>
   <si>
@@ -116,16 +83,150 @@
   </si>
   <si>
     <t>Mijn afstudeeropdracht was…</t>
+  </si>
+  <si>
+    <t>Stad</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Straat</t>
+  </si>
+  <si>
+    <t>Huisnummer</t>
+  </si>
+  <si>
+    <t>Toevoeging</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Wachtwoord</t>
+  </si>
+  <si>
+    <t>Gebruikersnaam</t>
+  </si>
+  <si>
+    <t>9711AA</t>
+  </si>
+  <si>
+    <t>3571GF</t>
+  </si>
+  <si>
+    <t>Dorpsstraat</t>
+  </si>
+  <si>
+    <t>TulaStraat</t>
+  </si>
+  <si>
+    <t>b.luijten@gmail.com</t>
+  </si>
+  <si>
+    <t>Jos</t>
+  </si>
+  <si>
+    <t>van Weert</t>
+  </si>
+  <si>
+    <t>j.weert@gmail.com</t>
+  </si>
+  <si>
+    <t>bartje</t>
+  </si>
+  <si>
+    <t>josje</t>
+  </si>
+  <si>
+    <t>nietkijkenterwijlikdittype</t>
+  </si>
+  <si>
+    <t>laatmijnaccountmetrust</t>
+  </si>
+  <si>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>Start_datum</t>
+  </si>
+  <si>
+    <t>Eind_datum</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>s-Hertogenbosch</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Onderwijsboulevaard</t>
+  </si>
+  <si>
+    <t>5223DE</t>
+  </si>
+  <si>
+    <t>info@avans.nl</t>
+  </si>
+  <si>
+    <t>Telefoonnummer</t>
+  </si>
+  <si>
+    <t>030-5689547</t>
+  </si>
+  <si>
+    <t>Land (engels)</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Assignment_rating</t>
+  </si>
+  <si>
+    <t>Guidance_rating</t>
+  </si>
+  <si>
+    <t>Accomodation_rating</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Project_Id</t>
+  </si>
+  <si>
+    <t>education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,19 +249,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,7 +315,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -247,7 +349,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,10 +383,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,72 +558,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>51689155</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5287245</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>215</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2">
-        <v>51689155</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5287245</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41275</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41365</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41487</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41579</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -531,158 +875,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1">
-        <v>41275</v>
-      </c>
-      <c r="F2" s="1">
-        <v>41365</v>
-      </c>
-      <c r="G2">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
-        <v>41487</v>
-      </c>
-      <c r="F3" s="1">
-        <v>41579</v>
-      </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="F4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kaart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Locatie_naam</t>
   </si>
@@ -209,13 +214,19 @@
   </si>
   <si>
     <t>education</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>P0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +273,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -270,14 +281,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,9 +329,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,9 +363,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,9 +398,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,16 +574,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -640,7 +656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -685,14 +701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
@@ -708,7 +724,7 @@
     <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -746,7 +762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -793,14 +809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -810,12 +826,12 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -830,12 +846,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -850,12 +866,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -876,12 +892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -891,7 +909,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -914,9 +932,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -937,9 +955,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -960,7 +978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>61</v>
       </c>

--- a/import.xlsx
+++ b/import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Locatie_naam</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Rating</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Project_Id</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>P0001</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -577,11 +577,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -646,6 +649,9 @@
       <c r="H2">
         <v>17</v>
       </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
       <c r="J2" s="3" t="s">
         <v>36</v>
       </c>
@@ -680,6 +686,9 @@
       </c>
       <c r="H3">
         <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>39</v>
@@ -705,7 +714,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2">
         <v>51689155</v>
@@ -813,7 +822,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -851,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -871,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -893,10 +902,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +920,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -934,7 +943,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -957,7 +966,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -976,11 +985,6 @@
       </c>
       <c r="G3">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kaart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20010" windowHeight="8025"/>
   </bookViews>
@@ -66,9 +61,6 @@
     <t>Opdracht_type</t>
   </si>
   <si>
-    <t>O0003</t>
-  </si>
-  <si>
     <t>Avans Hogeschool 's-Hertogenbosch</t>
   </si>
   <si>
@@ -220,13 +212,16 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>O0002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,7 +268,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,9 +284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,9 +324,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,10 +358,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,10 +392,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,19 +567,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:R23"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -600,31 +593,31 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -638,66 +631,66 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -710,14 +703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Q37"/>
+      <selection activeCell="A3" sqref="A3:AC264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
@@ -733,7 +726,7 @@
     <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -741,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -750,36 +743,36 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>51689155</v>
@@ -788,25 +781,25 @@
         <v>5287245</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>215</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -818,14 +811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J28"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -835,32 +828,32 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -872,15 +865,15 @@
         <v>41365</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -892,7 +885,7 @@
         <v>41579</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -901,14 +894,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -918,38 +911,38 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -964,15 +957,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>5</v>
